--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 5 (37, 4, 45, 48, 20)/MDD 0 (41, 8, 15, 16, 33)/ANN_128nodes_Uniform0.05Virtual_Control(37, 4, 45, 48, 20)_MDD(41, 8, 15, 16, 33)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 5 (37, 4, 45, 48, 20)/MDD 0 (41, 8, 15, 16, 33)/ANN_128nodes_Uniform0.05Virtual_Control(37, 4, 45, 48, 20)_MDD(41, 8, 15, 16, 33)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>4.241444671575097E-07</v>
+        <v>6.788371158939305E-07</v>
       </c>
       <c r="E2">
-        <v>4.241444671575097E-07</v>
+        <v>6.788371158939305E-07</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.0001757000666737688</v>
+        <v>2.568514543710756E-05</v>
       </c>
       <c r="E3">
-        <v>0.0001757000666737688</v>
+        <v>2.568514543710756E-05</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2.070569886955494E-15</v>
+        <v>1.049925520631145E-18</v>
       </c>
       <c r="E4">
-        <v>2.070569886955494E-15</v>
+        <v>1.049925520631145E-18</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>6.716625950454425E-25</v>
+        <v>1.10775702984492E-19</v>
       </c>
       <c r="E5">
-        <v>6.716625950454425E-25</v>
+        <v>1.10775702984492E-19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.003591795697181069</v>
+        <v>0.0007228411622045652</v>
       </c>
       <c r="E6">
-        <v>0.003591795697181069</v>
+        <v>0.0007228411622045652</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1.23866680850724E-05</v>
+        <v>3.894527830186534E-06</v>
       </c>
       <c r="E7">
-        <v>0.9999876133319149</v>
+        <v>0.9999961054721698</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.7193632811177851</v>
+        <v>0.7801052370727506</v>
       </c>
       <c r="E8">
-        <v>0.2806367188822149</v>
+        <v>0.2198947629272494</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9996119605751389</v>
+        <v>0.9999998208745907</v>
       </c>
       <c r="E9">
-        <v>0.0003880394248610974</v>
+        <v>1.791254092831096E-07</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.9998463864723143</v>
+        <v>0.9999782060605386</v>
       </c>
       <c r="E10">
-        <v>0.0001536135276857253</v>
+        <v>2.179393946144526E-05</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,13 +582,13 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9801872708585634</v>
+        <v>0.9993007604893783</v>
       </c>
       <c r="E11">
-        <v>0.01981272914143661</v>
+        <v>0.0006992395106216742</v>
       </c>
       <c r="F11">
-        <v>1.165260672569275</v>
+        <v>1.270573735237122</v>
       </c>
       <c r="G11">
         <v>0.9</v>
